--- a/PMIS/Schedule Model.xlsx
+++ b/PMIS/Schedule Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyzyd\OneDrive\Desktop\PMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1225F94-B804-40A8-8C65-DB65B5E2C73F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21629D88-CC08-469C-B7FA-133C5F2F3BC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F4E7EAEE-C6C6-4667-B0E0-7F3B1BF6C068}"/>
   </bookViews>
@@ -31,92 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Schedule Model</t>
   </si>
   <si>
-    <t>Basic Game</t>
-  </si>
-  <si>
-    <t>Additional Features</t>
-  </si>
-  <si>
-    <t>Basic game consists of:</t>
-  </si>
-  <si>
-    <t>3 classes (Warrior, Healer, Mage)</t>
-  </si>
-  <si>
-    <t>1 objective(eg. 3v3 6v6, King of the Hill)</t>
-  </si>
-  <si>
-    <t>1 Map</t>
-  </si>
-  <si>
-    <t>Basic audio (eg. Sword swing, blocking)</t>
-  </si>
-  <si>
-    <t>More classes</t>
-  </si>
-  <si>
-    <t>More objectives</t>
-  </si>
-  <si>
-    <t>More maps</t>
-  </si>
-  <si>
-    <t>Detailed Audio</t>
-  </si>
-  <si>
-    <t>Additional Features:</t>
-  </si>
-  <si>
-    <t>Rewards/Achievements</t>
-  </si>
-  <si>
-    <t>Microtransactions</t>
-  </si>
-  <si>
-    <t>Customizable Player/Weapons</t>
-  </si>
-  <si>
     <t>Journal</t>
   </si>
   <si>
@@ -136,6 +55,69 @@
   </si>
   <si>
     <t>This weeks meeting we talked about who's doing what. Zyrynyl is doing warrior animations, William is doing basic objective, Patryk is doing the warrior sounds, Niall is doing the basic menu gui, Euan is doing the basic map and finally Thomas is doing the warrior design. After doing this we started brainstorming on what the game will be and what the basic game will have. And we will make sure that were working with the kanban board.</t>
+  </si>
+  <si>
+    <t>Jan 27-Feb 3rd</t>
+  </si>
+  <si>
+    <t>1 Meeting - 30 mins</t>
+  </si>
+  <si>
+    <t>This weeks meeting we talked about improving the PMIS stuff and also talked about what the game will have, eg (microtransaction, models and the core gameplay). We also got a lot more information about of what has to be in the game.</t>
+  </si>
+  <si>
+    <t>Week 1 (Jan 20-27)</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Warrior Animations</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Basic UI</t>
+  </si>
+  <si>
+    <t>Basic Map</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>Warrior Sounds</t>
+  </si>
+  <si>
+    <t>Halfway done</t>
+  </si>
+  <si>
+    <t>Basic Objective</t>
+  </si>
+  <si>
+    <t>Class Designs</t>
+  </si>
+  <si>
+    <t>Week 2 (Jan 27- Feb 3rd)</t>
+  </si>
+  <si>
+    <t>Implement Warrior Class</t>
+  </si>
+  <si>
+    <t>Change Warrior Class to intended design and start Mage animations</t>
+  </si>
+  <si>
+    <t>Detailed UI Navigations and Microtransaction</t>
+  </si>
+  <si>
+    <t>Finish Warrior Sounds</t>
+  </si>
+  <si>
+    <t>Scoring System</t>
   </si>
 </sst>
 </file>
@@ -158,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,18 +149,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -186,35 +162,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2712B88F-21CD-4385-8C7C-31E99875ED96}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="B18:L19"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,297 +539,439 @@
     <col min="1" max="1" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="L5" s="9"/>
+      <c r="N5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="9"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="N6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="N9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="N10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L3" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="G13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="40">
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="N9:V9"/>
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="N11:V11"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:L19"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="B13:E13"/>
     <mergeCell ref="A16:M17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:L18"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PMIS/Schedule Model.xlsx
+++ b/PMIS/Schedule Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyzyd\OneDrive\Desktop\PMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21629D88-CC08-469C-B7FA-133C5F2F3BC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BF2096-C20D-4855-A507-920AE6D7A43D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F4E7EAEE-C6C6-4667-B0E0-7F3B1BF6C068}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Schedule Model</t>
   </si>
@@ -63,9 +63,6 @@
     <t>1 Meeting - 30 mins</t>
   </si>
   <si>
-    <t>This weeks meeting we talked about improving the PMIS stuff and also talked about what the game will have, eg (microtransaction, models and the core gameplay). We also got a lot more information about of what has to be in the game.</t>
-  </si>
-  <si>
     <t>Week 1 (Jan 20-27)</t>
   </si>
   <si>
@@ -118,6 +115,33 @@
   </si>
   <si>
     <t>Scoring System</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Tasks that must be done</t>
+  </si>
+  <si>
+    <t>This weeks meeting we talked about improving the PMIS stuff and also talked about what the game will have, eg (microtransaction, models and the core gameplay). We also got a lot more information about of what has to be in the game, e.g. customizable weapons and looks for the microtransaction and also has to fit the setting on where the players will play.</t>
+  </si>
+  <si>
+    <t>Animations for the 3 classes</t>
+  </si>
+  <si>
+    <t>Microtransaction integrated</t>
+  </si>
+  <si>
+    <t>Objectives</t>
+  </si>
+  <si>
+    <t>Sounds for the classes</t>
+  </si>
+  <si>
+    <t>Functioning UI and HUD</t>
+  </si>
+  <si>
+    <t>Weapons/Gear that can be bought</t>
   </si>
 </sst>
 </file>
@@ -140,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,8 +214,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -195,23 +244,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -528,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2712B88F-21CD-4385-8C7C-31E99875ED96}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,398 +573,559 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="4" spans="1:24" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="N4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="N4" s="7" t="s">
+      <c r="L5" s="5"/>
+      <c r="N5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="N6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9" t="s">
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="N7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="N5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="9"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="N6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="N7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="N8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="N9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="N10" s="4" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:13" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="5" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="57">
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="A23:M24"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="F25:L25"/>
     <mergeCell ref="W11:X11"/>
     <mergeCell ref="N5:V5"/>
     <mergeCell ref="W5:X5"/>
@@ -947,31 +1141,6 @@
     <mergeCell ref="N11:V11"/>
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="W10:X10"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="A16:M17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PMIS/Schedule Model.xlsx
+++ b/PMIS/Schedule Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyzyd\OneDrive\Desktop\PMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BF2096-C20D-4855-A507-920AE6D7A43D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE2CBE2-DC6A-4A2F-94F9-66CD4831690F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F4E7EAEE-C6C6-4667-B0E0-7F3B1BF6C068}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>Schedule Model</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Jan 27-Feb 3rd</t>
   </si>
   <si>
-    <t>1 Meeting - 30 mins</t>
-  </si>
-  <si>
     <t>Week 1 (Jan 20-27)</t>
   </si>
   <si>
@@ -142,13 +139,106 @@
   </si>
   <si>
     <t>Weapons/Gear that can be bought</t>
+  </si>
+  <si>
+    <t>Halfway Done</t>
+  </si>
+  <si>
+    <t>Nearly Done</t>
+  </si>
+  <si>
+    <t>Week 3 (Feb 3rd- Feb 10th)</t>
+  </si>
+  <si>
+    <t>Finish Implementing</t>
+  </si>
+  <si>
+    <t>Alchemist Animations</t>
+  </si>
+  <si>
+    <t>In game Microtransaction</t>
+  </si>
+  <si>
+    <t>Mage Sounds</t>
+  </si>
+  <si>
+    <t>Character Models</t>
+  </si>
+  <si>
+    <t>Feb 3rd-Feb 10th</t>
+  </si>
+  <si>
+    <t>1 Meeting</t>
+  </si>
+  <si>
+    <t>The Roblox Project - Milestone Schedule</t>
+  </si>
+  <si>
+    <t>Week1</t>
+  </si>
+  <si>
+    <t>Week2</t>
+  </si>
+  <si>
+    <t>Week3</t>
+  </si>
+  <si>
+    <t>Week5</t>
+  </si>
+  <si>
+    <t>Week4</t>
+  </si>
+  <si>
+    <t>Week6</t>
+  </si>
+  <si>
+    <t>Week7</t>
+  </si>
+  <si>
+    <t>Week8</t>
+  </si>
+  <si>
+    <t>Week9</t>
+  </si>
+  <si>
+    <t>Week10</t>
+  </si>
+  <si>
+    <t>Week11</t>
+  </si>
+  <si>
+    <t>Playable Basic Game</t>
+  </si>
+  <si>
+    <t>Mock up Monetisation</t>
+  </si>
+  <si>
+    <t>Main 3 classes Implemented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Map </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Mechanics </t>
+  </si>
+  <si>
+    <t>Fully Implemented Microtransaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished Game </t>
+  </si>
+  <si>
+    <t>♦</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,8 +253,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +276,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -226,26 +328,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,19 +672,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2712B88F-21CD-4385-8C7C-31E99875ED96}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:L15"/>
+    <sheetView tabSelected="1" topLeftCell="I5" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7:AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="14" max="14" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -589,7 +701,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -604,37 +716,50 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="4" spans="1:24" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="N4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="N4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Z4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -644,12 +769,12 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="N5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="N5" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -659,14 +784,29 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" s="10"/>
+      <c r="Z5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="5"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="10"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -677,26 +817,41 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="N6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="11"/>
+      <c r="Z6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="N6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -707,11 +862,11 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -721,12 +876,27 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
+      <c r="W7" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -737,11 +907,11 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -751,12 +921,27 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="W8" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -767,11 +952,11 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -781,12 +966,27 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+      <c r="W9" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -797,11 +997,11 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -811,12 +1011,27 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="W10" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -827,11 +1042,11 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -841,10 +1056,25 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="W11" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -856,24 +1086,38 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="N13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="13"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -884,13 +1128,49 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="N14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="O14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="X14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y14" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -902,10 +1182,26 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -917,10 +1213,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -932,10 +1244,26 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -947,10 +1275,26 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+    </row>
+    <row r="19" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -962,10 +1306,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+    </row>
+    <row r="20" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -977,10 +1337,26 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -992,9 +1368,43 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="N21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y21" s="16"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="N22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="3"/>
@@ -1010,7 +1420,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1025,7 +1435,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
@@ -1044,72 +1454,97 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:13" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:25" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="1:13" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:25" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="F27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:25" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="A23:M24"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
+  <mergeCells count="76">
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="Z11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="Z4:AJ4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="N9:V9"/>
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="N11:V11"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="F27:L27"/>
     <mergeCell ref="B4:L4"/>
@@ -1126,21 +1561,32 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="F25:L25"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="N9:V9"/>
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="N11:V11"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="A23:M24"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PMIS/Schedule Model.xlsx
+++ b/PMIS/Schedule Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyzyd\OneDrive\Desktop\PMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE2CBE2-DC6A-4A2F-94F9-66CD4831690F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91D1421-79A7-4EB0-ABC9-402C966184A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F4E7EAEE-C6C6-4667-B0E0-7F3B1BF6C068}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>Schedule Model</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Feb 3rd-Feb 10th</t>
   </si>
   <si>
-    <t>1 Meeting</t>
-  </si>
-  <si>
     <t>The Roblox Project - Milestone Schedule</t>
   </si>
   <si>
@@ -232,13 +229,34 @@
   </si>
   <si>
     <t>♦</t>
+  </si>
+  <si>
+    <t>Week12</t>
+  </si>
+  <si>
+    <t>Week13</t>
+  </si>
+  <si>
+    <t>PMIS</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>1 Meeting- 30 mins</t>
+  </si>
+  <si>
+    <t>This weeks meeting we talked about what we were going to do for microtransactions and uploading sounds. We also talked about milestones regarding PMIS.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +276,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -316,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -325,7 +350,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -334,10 +372,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -348,15 +395,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -373,6 +411,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>248340</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>578700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>251580</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>579060</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A687FF0-BE30-4DCE-B7B5-1BC20A62AA8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3364920" y="7482420"/>
+            <a:ext cx="3240" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A687FF0-BE30-4DCE-B7B5-1BC20A62AA8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3355920" y="7473780"/>
+              <a:ext cx="20880" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-02-06T11:23:19.095"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9 1,'-4'0,"-1"0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -672,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2712B88F-21CD-4385-8C7C-31E99875ED96}">
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I5" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7:AH7"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,394 +820,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="4" spans="1:36" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="N4" s="9" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="N4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Z4" s="9" t="s">
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Z4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="10" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="N5" s="4" t="s">
+      <c r="L5" s="20"/>
+      <c r="N5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="10" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="10"/>
-      <c r="Z5" s="4" t="s">
+      <c r="X5" s="20"/>
+      <c r="Z5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="10" t="s">
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AJ5" s="10"/>
+      <c r="AJ5" s="20"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="N6" s="11" t="s">
+      <c r="L6" s="11"/>
+      <c r="N6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11" t="s">
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="11"/>
-      <c r="Z6" s="11" t="s">
+      <c r="X6" s="21"/>
+      <c r="Z6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="N7" s="3" t="s">
+      <c r="L7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3" t="s">
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="X7" s="3"/>
-      <c r="Z7" s="3" t="s">
+      <c r="X7" s="11"/>
+      <c r="Z7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="N8" s="3" t="s">
+      <c r="L8" s="11"/>
+      <c r="N8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3" t="s">
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="3"/>
-      <c r="Z8" s="3" t="s">
+      <c r="X8" s="11"/>
+      <c r="Z8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="N9" s="3" t="s">
+      <c r="L9" s="11"/>
+      <c r="N9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3" t="s">
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="3"/>
-      <c r="Z9" s="3" t="s">
+      <c r="X9" s="11"/>
+      <c r="Z9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="N10" s="3" t="s">
+      <c r="L10" s="11"/>
+      <c r="N10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3" t="s">
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="3"/>
-      <c r="Z10" s="3" t="s">
+      <c r="X10" s="11"/>
+      <c r="Z10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="N11" s="3" t="s">
+      <c r="L11" s="11"/>
+      <c r="N11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3" t="s">
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="X11" s="3"/>
-      <c r="Z11" s="3" t="s">
+      <c r="X11" s="11"/>
+      <c r="Z11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
@@ -1087,438 +1222,478 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="N13" s="12" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="N13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="N14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="13"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="N14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="15" t="s">
+      <c r="P14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="Q14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="R14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="15" t="s">
+      <c r="T14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="S14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="T14" s="15" t="s">
+      <c r="U14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U14" s="15" t="s">
+      <c r="V14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="V14" s="15" t="s">
+      <c r="W14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="W14" s="15" t="s">
+      <c r="X14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="X14" s="15" t="s">
+      <c r="Y14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Y14" s="15" t="s">
+      <c r="Z14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="N15" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="N15" s="14" t="s">
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="N16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="N16" s="14" t="s">
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="N17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="N17" s="14" t="s">
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="N18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="N18" s="14" t="s">
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+    </row>
+    <row r="19" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="N19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-    </row>
-    <row r="19" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="N19" s="14" t="s">
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+    </row>
+    <row r="20" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="N20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-    </row>
-    <row r="20" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="N20" s="14" t="s">
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="N21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="N21" s="14" t="s">
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y21" s="7"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y21" s="16"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="N22" s="14" t="s">
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA23" s="7"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA24" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="8"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:27" ht="32.4" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
+      <c r="E29" s="18"/>
+      <c r="F29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:25" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:27" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5" t="s">
+      <c r="E30" s="13"/>
+      <c r="F30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:25" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:27" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="1" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="5" t="s">
+      <c r="E31" s="1"/>
+      <c r="F31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:25" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:27" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="74">
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="N11:V11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="Z10:AH10"/>
     <mergeCell ref="AI10:AJ10"/>
     <mergeCell ref="Z11:AH11"/>
     <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="W11:X11"/>
     <mergeCell ref="Z7:AH7"/>
     <mergeCell ref="AI7:AJ7"/>
     <mergeCell ref="Z8:AH8"/>
@@ -1530,7 +1705,6 @@
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="Z6:AH6"/>
     <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="W11:X11"/>
     <mergeCell ref="N5:V5"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="N4:X4"/>
@@ -1541,17 +1715,20 @@
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="W8:X8"/>
     <mergeCell ref="N9:V9"/>
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="N11:V11"/>
     <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:L27"/>
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="B8:J8"/>
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="B10:J10"/>
@@ -1560,35 +1737,30 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="A23:M24"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="N13:AA13"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="B18:J18"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B14:J14"/>
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PMIS/Schedule Model.xlsx
+++ b/PMIS/Schedule Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyzyd\OneDrive\Desktop\PMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91D1421-79A7-4EB0-ABC9-402C966184A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F46675-A788-4BC9-ADB2-230998DCF082}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F4E7EAEE-C6C6-4667-B0E0-7F3B1BF6C068}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
   <si>
     <t>Schedule Model</t>
   </si>
@@ -250,6 +250,27 @@
   </si>
   <si>
     <t>This weeks meeting we talked about what we were going to do for microtransactions and uploading sounds. We also talked about milestones regarding PMIS.</t>
+  </si>
+  <si>
+    <t>Week 4 (Feb 10th- Feb 17th)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Mage/Alchemist Sounds</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>Abilities Implementing</t>
+  </si>
+  <si>
+    <t>Weapons/Models</t>
+  </si>
+  <si>
+    <t>In game Microtransaction/UI</t>
   </si>
 </sst>
 </file>
@@ -360,28 +381,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -394,6 +394,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -807,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2712B88F-21CD-4385-8C7C-31E99875ED96}">
-  <dimension ref="A1:AJ32"/>
+  <dimension ref="A1:AV32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AT25" sqref="AT25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,397 +840,513 @@
     <col min="14" max="14" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="4" spans="1:36" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="4" spans="1:48" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="N4" s="19" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Z4" s="19" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Z4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AL4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="20" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="N5" s="18" t="s">
+      <c r="L5" s="13"/>
+      <c r="N5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="20" t="s">
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="20"/>
-      <c r="Z5" s="18" t="s">
+      <c r="X5" s="13"/>
+      <c r="Z5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="20" t="s">
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AJ5" s="20"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="AJ5" s="13"/>
+      <c r="AL5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV5" s="13"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="N6" s="21" t="s">
+      <c r="L6" s="10"/>
+      <c r="N6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21" t="s">
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="21"/>
-      <c r="Z6" s="21" t="s">
+      <c r="X6" s="14"/>
+      <c r="Z6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ6" s="14"/>
+      <c r="AL6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="L7" s="10"/>
+      <c r="N7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11" t="s">
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="X7" s="11"/>
-      <c r="Z7" s="11" t="s">
+      <c r="X7" s="10"/>
+      <c r="Z7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ7" s="10"/>
+      <c r="AL7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="N8" s="11" t="s">
+      <c r="L8" s="10"/>
+      <c r="N8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11" t="s">
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="11"/>
-      <c r="Z8" s="11" t="s">
+      <c r="X8" s="10"/>
+      <c r="Z8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ8" s="10"/>
+      <c r="AL8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="N9" s="11" t="s">
+      <c r="L9" s="10"/>
+      <c r="N9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11" t="s">
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="11"/>
-      <c r="Z9" s="11" t="s">
+      <c r="X9" s="10"/>
+      <c r="Z9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ9" s="10"/>
+      <c r="AL9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="N10" s="11" t="s">
+      <c r="L10" s="10"/>
+      <c r="N10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11" t="s">
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="11"/>
-      <c r="Z10" s="11" t="s">
+      <c r="X10" s="10"/>
+      <c r="Z10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ10" s="10"/>
+      <c r="AL10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="N11" s="11" t="s">
+      <c r="L11" s="10"/>
+      <c r="N11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11" t="s">
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="X11" s="11"/>
-      <c r="Z11" s="11" t="s">
+      <c r="X11" s="10"/>
+      <c r="Z11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1221,53 +1358,53 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="N13" s="10" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="N13" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="18"/>
+      <c r="L14" s="11"/>
       <c r="N14" s="6" t="s">
         <v>11</v>
       </c>
@@ -1311,20 +1448,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
       <c r="N15" s="5" t="s">
         <v>57</v>
       </c>
@@ -1342,20 +1479,20 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
       <c r="N16" s="5" t="s">
         <v>58</v>
       </c>
@@ -1374,19 +1511,19 @@
       <c r="Y16" s="7"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
       <c r="N17" s="5" t="s">
         <v>59</v>
       </c>
@@ -1405,19 +1542,19 @@
       <c r="Y17" s="7"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="N18" s="5" t="s">
         <v>60</v>
       </c>
@@ -1436,19 +1573,19 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
       <c r="N19" s="5" t="s">
         <v>61</v>
       </c>
@@ -1467,19 +1604,19 @@
       <c r="Y19" s="7"/>
     </row>
     <row r="20" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
       <c r="N20" s="5" t="s">
         <v>62</v>
       </c>
@@ -1498,19 +1635,19 @@
       <c r="Y20" s="7"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
       <c r="N21" s="5" t="s">
         <v>63</v>
       </c>
@@ -1588,61 +1725,61 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:27" ht="32.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
     </row>
     <row r="29" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="18" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18" t="s">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:27" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="12" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:27" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
@@ -1653,74 +1790,62 @@
         <v>6</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:27" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="12" t="s">
+      <c r="E32" s="17"/>
+      <c r="F32" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="N11:V11"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="Z11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="Z4:AJ4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="N9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B7:J7"/>
+  <mergeCells count="89">
+    <mergeCell ref="AU11:AV11"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="AL4:AV4"/>
+    <mergeCell ref="AL5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AL6:AT6"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AL7:AT7"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AL8:AT8"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AL9:AT9"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AL10:AT10"/>
+    <mergeCell ref="AU10:AV10"/>
+    <mergeCell ref="AL11:AT11"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F31:L31"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K11:L11"/>
@@ -1737,18 +1862,47 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="N9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Z4:AJ4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="Z11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="N11:V11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="N13:AA13"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F31:L31"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="B16:J16"/>
@@ -1756,8 +1910,6 @@
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
